--- a/data/136/ISTAT/Industrial Production Index NSA3_historical.xlsx
+++ b/data/136/ISTAT/Industrial Production Index NSA3_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Industrial Production Index NS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,1403 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>1990-01</t>
-  </si>
-  <si>
-    <t>1990-02</t>
-  </si>
-  <si>
-    <t>1990-03</t>
-  </si>
-  <si>
-    <t>1990-04</t>
-  </si>
-  <si>
-    <t>1990-05</t>
-  </si>
-  <si>
-    <t>1990-06</t>
-  </si>
-  <si>
-    <t>1990-07</t>
-  </si>
-  <si>
-    <t>1990-08</t>
-  </si>
-  <si>
-    <t>1990-09</t>
-  </si>
-  <si>
-    <t>1990-10</t>
-  </si>
-  <si>
-    <t>1990-11</t>
-  </si>
-  <si>
-    <t>1990-12</t>
-  </si>
-  <si>
-    <t>1991-01</t>
-  </si>
-  <si>
-    <t>1991-02</t>
-  </si>
-  <si>
-    <t>1991-03</t>
-  </si>
-  <si>
-    <t>1991-04</t>
-  </si>
-  <si>
-    <t>1991-05</t>
-  </si>
-  <si>
-    <t>1991-06</t>
-  </si>
-  <si>
-    <t>1991-07</t>
-  </si>
-  <si>
-    <t>1991-08</t>
-  </si>
-  <si>
-    <t>1991-09</t>
-  </si>
-  <si>
-    <t>1991-10</t>
-  </si>
-  <si>
-    <t>1991-11</t>
-  </si>
-  <si>
-    <t>1991-12</t>
-  </si>
-  <si>
-    <t>1992-01</t>
-  </si>
-  <si>
-    <t>1992-02</t>
-  </si>
-  <si>
-    <t>1992-03</t>
-  </si>
-  <si>
-    <t>1992-04</t>
-  </si>
-  <si>
-    <t>1992-05</t>
-  </si>
-  <si>
-    <t>1992-06</t>
-  </si>
-  <si>
-    <t>1992-07</t>
-  </si>
-  <si>
-    <t>1992-08</t>
-  </si>
-  <si>
-    <t>1992-09</t>
-  </si>
-  <si>
-    <t>1992-10</t>
-  </si>
-  <si>
-    <t>1992-11</t>
-  </si>
-  <si>
-    <t>1992-12</t>
-  </si>
-  <si>
-    <t>1993-01</t>
-  </si>
-  <si>
-    <t>1993-02</t>
-  </si>
-  <si>
-    <t>1993-03</t>
-  </si>
-  <si>
-    <t>1993-04</t>
-  </si>
-  <si>
-    <t>1993-05</t>
-  </si>
-  <si>
-    <t>1993-06</t>
-  </si>
-  <si>
-    <t>1993-07</t>
-  </si>
-  <si>
-    <t>1993-08</t>
-  </si>
-  <si>
-    <t>1993-09</t>
-  </si>
-  <si>
-    <t>1993-10</t>
-  </si>
-  <si>
-    <t>1993-11</t>
-  </si>
-  <si>
-    <t>1993-12</t>
-  </si>
-  <si>
-    <t>1994-01</t>
-  </si>
-  <si>
-    <t>1994-02</t>
-  </si>
-  <si>
-    <t>1994-03</t>
-  </si>
-  <si>
-    <t>1994-04</t>
-  </si>
-  <si>
-    <t>1994-05</t>
-  </si>
-  <si>
-    <t>1994-06</t>
-  </si>
-  <si>
-    <t>1994-07</t>
-  </si>
-  <si>
-    <t>1994-08</t>
-  </si>
-  <si>
-    <t>1994-09</t>
-  </si>
-  <si>
-    <t>1994-10</t>
-  </si>
-  <si>
-    <t>1994-11</t>
-  </si>
-  <si>
-    <t>1994-12</t>
-  </si>
-  <si>
-    <t>1995-01</t>
-  </si>
-  <si>
-    <t>1995-02</t>
-  </si>
-  <si>
-    <t>1995-03</t>
-  </si>
-  <si>
-    <t>1995-04</t>
-  </si>
-  <si>
-    <t>1995-05</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1995-07</t>
-  </si>
-  <si>
-    <t>1995-08</t>
-  </si>
-  <si>
-    <t>1995-09</t>
-  </si>
-  <si>
-    <t>1995-10</t>
-  </si>
-  <si>
-    <t>1995-11</t>
-  </si>
-  <si>
-    <t>1995-12</t>
-  </si>
-  <si>
-    <t>1996-01</t>
-  </si>
-  <si>
-    <t>1996-02</t>
-  </si>
-  <si>
-    <t>1996-03</t>
-  </si>
-  <si>
-    <t>1996-04</t>
-  </si>
-  <si>
-    <t>1996-05</t>
-  </si>
-  <si>
-    <t>1996-06</t>
-  </si>
-  <si>
-    <t>1996-07</t>
-  </si>
-  <si>
-    <t>1996-08</t>
-  </si>
-  <si>
-    <t>1996-09</t>
-  </si>
-  <si>
-    <t>1996-10</t>
-  </si>
-  <si>
-    <t>1996-11</t>
-  </si>
-  <si>
-    <t>1996-12</t>
-  </si>
-  <si>
-    <t>1997-01</t>
-  </si>
-  <si>
-    <t>1997-02</t>
-  </si>
-  <si>
-    <t>1997-03</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>101: processing and preserving of meat and production of meat products</t>
-  </si>
-  <si>
-    <t>102: processing and preserving of fish, crustaceans and molluscs</t>
-  </si>
-  <si>
-    <t>103: processing and preserving of fruit and vegetables</t>
-  </si>
-  <si>
-    <t>104: manufacture of vegetable and animal oils and fats</t>
-  </si>
-  <si>
-    <t>105: manufacture of dairy products</t>
-  </si>
-  <si>
-    <t>106: manufacture of grain mill products, starches and starch products</t>
-  </si>
-  <si>
-    <t>107: manufacture of bakery and farinaceous products</t>
-  </si>
-  <si>
-    <t>108: manufacture of other food products</t>
-  </si>
-  <si>
-    <t>109: manufacture of prepared animal feeds</t>
-  </si>
-  <si>
-    <t>131: preparation and spinning of textile fibres</t>
-  </si>
-  <si>
-    <t>132: weaving of textiles</t>
-  </si>
-  <si>
-    <t>133: finishing of textiles</t>
-  </si>
-  <si>
-    <t>139: manufacture of other textiles</t>
-  </si>
-  <si>
-    <t>141: manufacture of wearing apparel, except fur apparel</t>
-  </si>
-  <si>
-    <t>143: manufacture of knitted and crocheted apparel</t>
-  </si>
-  <si>
-    <t>151: tanning and dressing of leather, manufacture of luggage, handbags, saddlery and harness, dressing and dyeing of fur</t>
-  </si>
-  <si>
-    <t>152: manufacture of footwear</t>
-  </si>
-  <si>
-    <t>161: sawmilling and planing of wood</t>
-  </si>
-  <si>
-    <t>162: manufacture of products of wood, cork, straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>171: manufacture of pulp, paper and paperboard</t>
-  </si>
-  <si>
-    <t>172: manufacture of articles of paper and paperboard</t>
-  </si>
-  <si>
-    <t>181: printing and service activities related to printing</t>
-  </si>
-  <si>
-    <t>191: manufacture of coke oven products</t>
-  </si>
-  <si>
-    <t>192: manufacture of refined petroleum products</t>
-  </si>
-  <si>
-    <t>201: manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
-  </si>
-  <si>
-    <t>202: manufacture of pesticides and other agrochemical products</t>
-  </si>
-  <si>
-    <t>203: manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
-  </si>
-  <si>
-    <t>204: manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
-  </si>
-  <si>
-    <t>205: manufacture of other chemical products</t>
-  </si>
-  <si>
-    <t>206: manufacture of man-made fibres</t>
-  </si>
-  <si>
-    <t>211: manufacture of basic pharmaceutical products</t>
-  </si>
-  <si>
-    <t>212: manufacture of pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>221: manufacture of rubber products</t>
-  </si>
-  <si>
-    <t>222: manufacture of plastics products</t>
-  </si>
-  <si>
-    <t>231: manufacture of glass and glass products</t>
-  </si>
-  <si>
-    <t>232: manufacture of refractory products</t>
-  </si>
-  <si>
-    <t>233: manufacture of clay building materials</t>
-  </si>
-  <si>
-    <t>234: manufacture of other porcelain and ceramic products</t>
-  </si>
-  <si>
-    <t>235: manufacture of cement, lime and plaster</t>
-  </si>
-  <si>
-    <t>236: manufacture of articles of concrete, cement and plaster</t>
-  </si>
-  <si>
-    <t>239: manufacture of abrasive products and non-metallic mineral products n.e.c.</t>
-  </si>
-  <si>
-    <t>242: manufacture of tubes, pipes, hollow profiles and related fittings, of steel</t>
-  </si>
-  <si>
-    <t>244: manufacture of basic precious and other non-ferrous metals</t>
-  </si>
-  <si>
-    <t>245: casting of metals</t>
-  </si>
-  <si>
-    <t>251: manufacture of structural metal products</t>
-  </si>
-  <si>
-    <t>252: manufacture of tanks, reservoirs and containers of metal</t>
-  </si>
-  <si>
-    <t>253: manufacture of steam generators, except central heating hot water boilers</t>
-  </si>
-  <si>
-    <t>254: manufacture of weapons and ammunition</t>
-  </si>
-  <si>
-    <t>255: forging, pressing, stamping and roll-forming of metal, powder metallurgy</t>
-  </si>
-  <si>
-    <t>256: treatment and coating of metals, machining</t>
-  </si>
-  <si>
-    <t>257: manufacture of cutlery, tools and general hardware</t>
-  </si>
-  <si>
-    <t>259: manufacture of other fabricated metal products</t>
-  </si>
-  <si>
-    <t>261: manufacture of electronic components and boards</t>
-  </si>
-  <si>
-    <t>263: manufacture of communication equipment</t>
-  </si>
-  <si>
-    <t>265: manufacture of instruments and appliances for measuring, testing and navigation, watches and clocks</t>
-  </si>
-  <si>
-    <t>271: manufacture of electric motors, generators, transformers and electricity distribution and control apparatus</t>
-  </si>
-  <si>
-    <t>272: manufacture of batteries and accumulators</t>
-  </si>
-  <si>
-    <t>273: manufacture of wiring and wiring devices</t>
-  </si>
-  <si>
-    <t>274: manufacture of electric lighting equipment</t>
-  </si>
-  <si>
-    <t>275: manufacture of domestic appliances</t>
-  </si>
-  <si>
-    <t>279: manufacture of other electrical equipment</t>
-  </si>
-  <si>
-    <t>281: manufacture of general-purpose machinery</t>
-  </si>
-  <si>
-    <t>282: manufacture of other general-purpose machinery</t>
-  </si>
-  <si>
-    <t>283: manufacture of agricultural and forestry machinery</t>
-  </si>
-  <si>
-    <t>284: manufacture of metal forming machinery and machine tools</t>
-  </si>
-  <si>
-    <t>289: manufacture of other special-purpose machinery</t>
-  </si>
-  <si>
-    <t>291: manufacture of motor vehicles</t>
-  </si>
-  <si>
-    <t>292: manufacture of bodies (coachwork) for motor vehicles, manufacture of trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>293: manufacture of parts and accessories for motor vehicles</t>
-  </si>
-  <si>
-    <t>301: building of ships and boats</t>
-  </si>
-  <si>
-    <t>302: manufacture of railway locomotives and rolling stock</t>
-  </si>
-  <si>
-    <t>303: manufacture of air and spacecraft and related machinery</t>
-  </si>
-  <si>
-    <t>309: manufacture of transport equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>321: manufacture of jewellery, bijouterie and related articles</t>
-  </si>
-  <si>
-    <t>323: manufacture of sports goods</t>
-  </si>
-  <si>
-    <t>325: manufacture of medical and dental instruments and supplies</t>
-  </si>
-  <si>
-    <t>329: manufacturing n.e.c.</t>
-  </si>
-  <si>
-    <t>331: repair of fabricated metal products, machinery and equipment</t>
-  </si>
-  <si>
-    <t>332: installation of industrial machinery and equipment</t>
-  </si>
-  <si>
-    <t>3511: production of electricity</t>
-  </si>
-  <si>
-    <t>3522: distribution of gaseous fuels through mains</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1763,1160 +366,1923 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:383">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="MP1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="MR1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="MS1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="MT1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="MU1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="MV1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="MW1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="MX1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="MY1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="MZ1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="NA1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="NB1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="NC1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="ND1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="NE1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="NF1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="NG1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="NH1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="NI1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="NJ1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="NK1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="NL1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="NM1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="NN1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="NO1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="NP1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="NR1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="NS1" s="1" t="s">
-        <v>382</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1990-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1990-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1990-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1990-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1990-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1990-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1990-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1990-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1990-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1990-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1990-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1990-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1991-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1991-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1991-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1991-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1991-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1991-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1991-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1991-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1991-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1991-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1991-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1991-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1992-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1992-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1992-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1992-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1992-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1992-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1992-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1992-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1992-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1992-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1992-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1992-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1993-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1993-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1993-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1993-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1993-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1993-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1993-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1993-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1993-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1993-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1993-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1994-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1994-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1994-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1994-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1994-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1994-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1994-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1994-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1995-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1995-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1995-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1995-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1995-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1995-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1995-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1995-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1996-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1996-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1996-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1996-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1996-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1996-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1996-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1997-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:383">
-      <c r="A2" s="1" t="s">
-        <v>383</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>101: processing and preserving of meat and production of meat products</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>80.09999999999999</v>
@@ -4065,9 +3431,11 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="3" spans="1:383">
-      <c r="A3" s="1" t="s">
-        <v>384</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>102: processing and preserving of fish, crustaceans and molluscs</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>69</v>
@@ -5216,9 +4584,11 @@
         <v>108.3</v>
       </c>
     </row>
-    <row r="4" spans="1:383">
-      <c r="A4" s="1" t="s">
-        <v>385</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>103: processing and preserving of fruit and vegetables</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>51.9</v>
@@ -6367,9 +5737,11 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="5" spans="1:383">
-      <c r="A5" s="1" t="s">
-        <v>386</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>104: manufacture of vegetable and animal oils and fats</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>88.2</v>
@@ -7518,9 +6890,11 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="6" spans="1:383">
-      <c r="A6" s="1" t="s">
-        <v>387</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>105: manufacture of dairy products</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>80.2</v>
@@ -8669,9 +8043,11 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="7" spans="1:383">
-      <c r="A7" s="1" t="s">
-        <v>388</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>106: manufacture of grain mill products, starches and starch products</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>88.2</v>
@@ -9820,9 +9196,11 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="8" spans="1:383">
-      <c r="A8" s="1" t="s">
-        <v>389</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>107: manufacture of bakery and farinaceous products</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>61</v>
@@ -10971,9 +10349,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:383">
-      <c r="A9" s="1" t="s">
-        <v>390</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>108: manufacture of other food products</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>61.2</v>
@@ -12122,9 +11502,11 @@
         <v>141.3</v>
       </c>
     </row>
-    <row r="10" spans="1:383">
-      <c r="A10" s="1" t="s">
-        <v>391</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>109: manufacture of prepared animal feeds</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>100</v>
@@ -13273,9 +12655,11 @@
         <v>120.3</v>
       </c>
     </row>
-    <row r="11" spans="1:383">
-      <c r="A11" s="1" t="s">
-        <v>392</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>131: preparation and spinning of textile fibres</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>217.6</v>
@@ -14424,9 +13808,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:383">
-      <c r="A12" s="1" t="s">
-        <v>393</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>132: weaving of textiles</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>181.5</v>
@@ -15575,9 +14961,11 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="13" spans="1:383">
-      <c r="A13" s="1" t="s">
-        <v>394</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>133: finishing of textiles</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>231.3</v>
@@ -16726,9 +16114,11 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="14" spans="1:383">
-      <c r="A14" s="1" t="s">
-        <v>395</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>139: manufacture of other textiles</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>182.9</v>
@@ -17877,9 +17267,11 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="15" spans="1:383">
-      <c r="A15" s="1" t="s">
-        <v>396</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>141: manufacture of wearing apparel, except fur apparel</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>134.2</v>
@@ -19028,9 +18420,11 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="16" spans="1:383">
-      <c r="A16" s="1" t="s">
-        <v>397</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>143: manufacture of knitted and crocheted apparel</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>121</v>
@@ -20179,9 +19573,11 @@
         <v>66.40000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:383">
-      <c r="A17" s="1" t="s">
-        <v>398</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>151: tanning and dressing of leather, manufacture of luggage, handbags, saddlery and harness, dressing and dyeing of fur</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>107.1</v>
@@ -21330,9 +20726,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:383">
-      <c r="A18" s="1" t="s">
-        <v>399</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>152: manufacture of footwear</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>353.6</v>
@@ -22481,9 +21879,11 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="19" spans="1:383">
-      <c r="A19" s="1" t="s">
-        <v>400</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>161: sawmilling and planing of wood</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>194.3</v>
@@ -23632,9 +23032,11 @@
         <v>92.90000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:383">
-      <c r="A20" s="1" t="s">
-        <v>401</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>162: manufacture of products of wood, cork, straw and plaiting materials</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>135.6</v>
@@ -24783,9 +24185,11 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="21" spans="1:383">
-      <c r="A21" s="1" t="s">
-        <v>402</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>171: manufacture of pulp, paper and paperboard</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>66.90000000000001</v>
@@ -25934,9 +25338,11 @@
         <v>122.4</v>
       </c>
     </row>
-    <row r="22" spans="1:383">
-      <c r="A22" s="1" t="s">
-        <v>403</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>172: manufacture of articles of paper and paperboard</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>82.5</v>
@@ -27085,9 +26491,11 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="23" spans="1:383">
-      <c r="A23" s="1" t="s">
-        <v>404</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>181: printing and service activities related to printing</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>109.1</v>
@@ -28236,9 +27644,11 @@
         <v>82.59999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:383">
-      <c r="A24" s="1" t="s">
-        <v>405</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>191: manufacture of coke oven products</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>370.6</v>
@@ -29387,9 +28797,11 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="25" spans="1:383">
-      <c r="A25" s="1" t="s">
-        <v>406</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>192: manufacture of refined petroleum products</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>132.1</v>
@@ -30538,9 +29950,11 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="26" spans="1:383">
-      <c r="A26" s="1" t="s">
-        <v>407</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>201: manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>141.9</v>
@@ -31689,9 +31103,11 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="27" spans="1:383">
-      <c r="A27" s="1" t="s">
-        <v>408</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>202: manufacture of pesticides and other agrochemical products</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>194.1</v>
@@ -32840,9 +32256,11 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="28" spans="1:383">
-      <c r="A28" s="1" t="s">
-        <v>409</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>203: manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>96.2</v>
@@ -33991,9 +33409,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:383">
-      <c r="A29" s="1" t="s">
-        <v>410</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>204: manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>67.09999999999999</v>
@@ -35142,9 +34562,11 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="30" spans="1:383">
-      <c r="A30" s="1" t="s">
-        <v>411</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>205: manufacture of other chemical products</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>195.1</v>
@@ -36293,9 +35715,11 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="31" spans="1:383">
-      <c r="A31" s="1" t="s">
-        <v>412</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>206: manufacture of man-made fibres</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>250.1</v>
@@ -37444,9 +36868,11 @@
         <v>93.59999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:383">
-      <c r="A32" s="1" t="s">
-        <v>413</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>211: manufacture of basic pharmaceutical products</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>89.7</v>
@@ -38595,9 +38021,11 @@
         <v>79.59999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:383">
-      <c r="A33" s="1" t="s">
-        <v>414</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>212: manufacture of pharmaceutical preparations</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>59.2</v>
@@ -39746,9 +39174,11 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="34" spans="1:383">
-      <c r="A34" s="1" t="s">
-        <v>415</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>221: manufacture of rubber products</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>134.1</v>
@@ -40897,9 +40327,11 @@
         <v>119.2</v>
       </c>
     </row>
-    <row r="35" spans="1:383">
-      <c r="A35" s="1" t="s">
-        <v>416</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>222: manufacture of plastics products</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>103.1</v>
@@ -42048,9 +41480,11 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="36" spans="1:383">
-      <c r="A36" s="1" t="s">
-        <v>417</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>231: manufacture of glass and glass products</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>101.1</v>
@@ -43199,9 +42633,11 @@
         <v>122.7</v>
       </c>
     </row>
-    <row r="37" spans="1:383">
-      <c r="A37" s="1" t="s">
-        <v>418</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>232: manufacture of refractory products</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>155.3</v>
@@ -44350,9 +43786,11 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="38" spans="1:383">
-      <c r="A38" s="1" t="s">
-        <v>419</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>233: manufacture of clay building materials</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>147.8</v>
@@ -45501,9 +44939,11 @@
         <v>133.9</v>
       </c>
     </row>
-    <row r="39" spans="1:383">
-      <c r="A39" s="1" t="s">
-        <v>420</v>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>234: manufacture of other porcelain and ceramic products</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>428.8</v>
@@ -46652,9 +46092,11 @@
         <v>115.9</v>
       </c>
     </row>
-    <row r="40" spans="1:383">
-      <c r="A40" s="1" t="s">
-        <v>421</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>235: manufacture of cement, lime and plaster</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>148.1</v>
@@ -47803,9 +47245,11 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="41" spans="1:383">
-      <c r="A41" s="1" t="s">
-        <v>422</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>236: manufacture of articles of concrete, cement and plaster</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>248.7</v>
@@ -48954,9 +48398,11 @@
         <v>141.8</v>
       </c>
     </row>
-    <row r="42" spans="1:383">
-      <c r="A42" s="1" t="s">
-        <v>423</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>239: manufacture of abrasive products and non-metallic mineral products n.e.c.</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>115.3</v>
@@ -50105,9 +49551,11 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="43" spans="1:383">
-      <c r="A43" s="1" t="s">
-        <v>424</v>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>242: manufacture of tubes, pipes, hollow profiles and related fittings, of steel</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>107.3</v>
@@ -51256,9 +50704,11 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="44" spans="1:383">
-      <c r="A44" s="1" t="s">
-        <v>425</v>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>244: manufacture of basic precious and other non-ferrous metals</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>117.5</v>
@@ -52407,9 +51857,11 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="45" spans="1:383">
-      <c r="A45" s="1" t="s">
-        <v>426</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>245: casting of metals</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>112.5</v>
@@ -53558,9 +53010,11 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="46" spans="1:383">
-      <c r="A46" s="1" t="s">
-        <v>427</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>251: manufacture of structural metal products</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>175.9</v>
@@ -54709,9 +54163,11 @@
         <v>116.6</v>
       </c>
     </row>
-    <row r="47" spans="1:383">
-      <c r="A47" s="1" t="s">
-        <v>428</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>252: manufacture of tanks, reservoirs and containers of metal</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>147.9</v>
@@ -55860,9 +55316,11 @@
         <v>159.9</v>
       </c>
     </row>
-    <row r="48" spans="1:383">
-      <c r="A48" s="1" t="s">
-        <v>429</v>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>253: manufacture of steam generators, except central heating hot water boilers</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>96</v>
@@ -57011,9 +56469,11 @@
         <v>178.9</v>
       </c>
     </row>
-    <row r="49" spans="1:383">
-      <c r="A49" s="1" t="s">
-        <v>430</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>254: manufacture of weapons and ammunition</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>91.3</v>
@@ -58162,9 +57622,11 @@
         <v>138.1</v>
       </c>
     </row>
-    <row r="50" spans="1:383">
-      <c r="A50" s="1" t="s">
-        <v>431</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>255: forging, pressing, stamping and roll-forming of metal, powder metallurgy</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>70.3</v>
@@ -59313,190 +58775,192 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="51" spans="1:383">
-      <c r="A51" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
-      <c r="D51" t="s"/>
-      <c r="E51" t="s"/>
-      <c r="F51" t="s"/>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s"/>
-      <c r="J51" t="s"/>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
-      <c r="M51" t="s"/>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-      <c r="V51" t="s"/>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
-      <c r="Z51" t="s"/>
-      <c r="AA51" t="s"/>
-      <c r="AB51" t="s"/>
-      <c r="AC51" t="s"/>
-      <c r="AD51" t="s"/>
-      <c r="AE51" t="s"/>
-      <c r="AF51" t="s"/>
-      <c r="AG51" t="s"/>
-      <c r="AH51" t="s"/>
-      <c r="AI51" t="s"/>
-      <c r="AJ51" t="s"/>
-      <c r="AK51" t="s"/>
-      <c r="AL51" t="s"/>
-      <c r="AM51" t="s"/>
-      <c r="AN51" t="s"/>
-      <c r="AO51" t="s"/>
-      <c r="AP51" t="s"/>
-      <c r="AQ51" t="s"/>
-      <c r="AR51" t="s"/>
-      <c r="AS51" t="s"/>
-      <c r="AT51" t="s"/>
-      <c r="AU51" t="s"/>
-      <c r="AV51" t="s"/>
-      <c r="AW51" t="s"/>
-      <c r="AX51" t="s"/>
-      <c r="AY51" t="s"/>
-      <c r="AZ51" t="s"/>
-      <c r="BA51" t="s"/>
-      <c r="BB51" t="s"/>
-      <c r="BC51" t="s"/>
-      <c r="BD51" t="s"/>
-      <c r="BE51" t="s"/>
-      <c r="BF51" t="s"/>
-      <c r="BG51" t="s"/>
-      <c r="BH51" t="s"/>
-      <c r="BI51" t="s"/>
-      <c r="BJ51" t="s"/>
-      <c r="BK51" t="s"/>
-      <c r="BL51" t="s"/>
-      <c r="BM51" t="s"/>
-      <c r="BN51" t="s"/>
-      <c r="BO51" t="s"/>
-      <c r="BP51" t="s"/>
-      <c r="BQ51" t="s"/>
-      <c r="BR51" t="s"/>
-      <c r="BS51" t="s"/>
-      <c r="BT51" t="s"/>
-      <c r="BU51" t="s"/>
-      <c r="BV51" t="s"/>
-      <c r="BW51" t="s"/>
-      <c r="BX51" t="s"/>
-      <c r="BY51" t="s"/>
-      <c r="BZ51" t="s"/>
-      <c r="CA51" t="s"/>
-      <c r="CB51" t="s"/>
-      <c r="CC51" t="s"/>
-      <c r="CD51" t="s"/>
-      <c r="CE51" t="s"/>
-      <c r="CF51" t="s"/>
-      <c r="CG51" t="s"/>
-      <c r="CH51" t="s"/>
-      <c r="CI51" t="s"/>
-      <c r="CJ51" t="s"/>
-      <c r="CK51" t="s"/>
-      <c r="CL51" t="s"/>
-      <c r="CM51" t="s"/>
-      <c r="CN51" t="s"/>
-      <c r="CO51" t="s"/>
-      <c r="CP51" t="s"/>
-      <c r="CQ51" t="s"/>
-      <c r="CR51" t="s"/>
-      <c r="CS51" t="s"/>
-      <c r="CT51" t="s"/>
-      <c r="CU51" t="s"/>
-      <c r="CV51" t="s"/>
-      <c r="CW51" t="s"/>
-      <c r="CX51" t="s"/>
-      <c r="CY51" t="s"/>
-      <c r="CZ51" t="s"/>
-      <c r="DA51" t="s"/>
-      <c r="DB51" t="s"/>
-      <c r="DC51" t="s"/>
-      <c r="DD51" t="s"/>
-      <c r="DE51" t="s"/>
-      <c r="DF51" t="s"/>
-      <c r="DG51" t="s"/>
-      <c r="DH51" t="s"/>
-      <c r="DI51" t="s"/>
-      <c r="DJ51" t="s"/>
-      <c r="DK51" t="s"/>
-      <c r="DL51" t="s"/>
-      <c r="DM51" t="s"/>
-      <c r="DN51" t="s"/>
-      <c r="DO51" t="s"/>
-      <c r="DP51" t="s"/>
-      <c r="DQ51" t="s"/>
-      <c r="DR51" t="s"/>
-      <c r="DS51" t="s"/>
-      <c r="DT51" t="s"/>
-      <c r="DU51" t="s"/>
-      <c r="DV51" t="s"/>
-      <c r="DW51" t="s"/>
-      <c r="DX51" t="s"/>
-      <c r="DY51" t="s"/>
-      <c r="DZ51" t="s"/>
-      <c r="EA51" t="s"/>
-      <c r="EB51" t="s"/>
-      <c r="EC51" t="s"/>
-      <c r="ED51" t="s"/>
-      <c r="EE51" t="s"/>
-      <c r="EF51" t="s"/>
-      <c r="EG51" t="s"/>
-      <c r="EH51" t="s"/>
-      <c r="EI51" t="s"/>
-      <c r="EJ51" t="s"/>
-      <c r="EK51" t="s"/>
-      <c r="EL51" t="s"/>
-      <c r="EM51" t="s"/>
-      <c r="EN51" t="s"/>
-      <c r="EO51" t="s"/>
-      <c r="EP51" t="s"/>
-      <c r="EQ51" t="s"/>
-      <c r="ER51" t="s"/>
-      <c r="ES51" t="s"/>
-      <c r="ET51" t="s"/>
-      <c r="EU51" t="s"/>
-      <c r="EV51" t="s"/>
-      <c r="EW51" t="s"/>
-      <c r="EX51" t="s"/>
-      <c r="EY51" t="s"/>
-      <c r="EZ51" t="s"/>
-      <c r="FA51" t="s"/>
-      <c r="FB51" t="s"/>
-      <c r="FC51" t="s"/>
-      <c r="FD51" t="s"/>
-      <c r="FE51" t="s"/>
-      <c r="FF51" t="s"/>
-      <c r="FG51" t="s"/>
-      <c r="FH51" t="s"/>
-      <c r="FI51" t="s"/>
-      <c r="FJ51" t="s"/>
-      <c r="FK51" t="s"/>
-      <c r="FL51" t="s"/>
-      <c r="FM51" t="s"/>
-      <c r="FN51" t="s"/>
-      <c r="FO51" t="s"/>
-      <c r="FP51" t="s"/>
-      <c r="FQ51" t="s"/>
-      <c r="FR51" t="s"/>
-      <c r="FS51" t="s"/>
-      <c r="FT51" t="s"/>
-      <c r="FU51" t="s"/>
-      <c r="FV51" t="s"/>
-      <c r="FW51" t="s"/>
-      <c r="FX51" t="s"/>
-      <c r="FY51" t="s"/>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>256: treatment and coating of metals, machining</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="inlineStr"/>
+      <c r="BL51" t="inlineStr"/>
+      <c r="BM51" t="inlineStr"/>
+      <c r="BN51" t="inlineStr"/>
+      <c r="BO51" t="inlineStr"/>
+      <c r="BP51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
+      <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="inlineStr"/>
+      <c r="BU51" t="inlineStr"/>
+      <c r="BV51" t="inlineStr"/>
+      <c r="BW51" t="inlineStr"/>
+      <c r="BX51" t="inlineStr"/>
+      <c r="BY51" t="inlineStr"/>
+      <c r="BZ51" t="inlineStr"/>
+      <c r="CA51" t="inlineStr"/>
+      <c r="CB51" t="inlineStr"/>
+      <c r="CC51" t="inlineStr"/>
+      <c r="CD51" t="inlineStr"/>
+      <c r="CE51" t="inlineStr"/>
+      <c r="CF51" t="inlineStr"/>
+      <c r="CG51" t="inlineStr"/>
+      <c r="CH51" t="inlineStr"/>
+      <c r="CI51" t="inlineStr"/>
+      <c r="CJ51" t="inlineStr"/>
+      <c r="CK51" t="inlineStr"/>
+      <c r="CL51" t="inlineStr"/>
+      <c r="CM51" t="inlineStr"/>
+      <c r="CN51" t="inlineStr"/>
+      <c r="CO51" t="inlineStr"/>
+      <c r="CP51" t="inlineStr"/>
+      <c r="CQ51" t="inlineStr"/>
+      <c r="CR51" t="inlineStr"/>
+      <c r="CS51" t="inlineStr"/>
+      <c r="CT51" t="inlineStr"/>
+      <c r="CU51" t="inlineStr"/>
+      <c r="CV51" t="inlineStr"/>
+      <c r="CW51" t="inlineStr"/>
+      <c r="CX51" t="inlineStr"/>
+      <c r="CY51" t="inlineStr"/>
+      <c r="CZ51" t="inlineStr"/>
+      <c r="DA51" t="inlineStr"/>
+      <c r="DB51" t="inlineStr"/>
+      <c r="DC51" t="inlineStr"/>
+      <c r="DD51" t="inlineStr"/>
+      <c r="DE51" t="inlineStr"/>
+      <c r="DF51" t="inlineStr"/>
+      <c r="DG51" t="inlineStr"/>
+      <c r="DH51" t="inlineStr"/>
+      <c r="DI51" t="inlineStr"/>
+      <c r="DJ51" t="inlineStr"/>
+      <c r="DK51" t="inlineStr"/>
+      <c r="DL51" t="inlineStr"/>
+      <c r="DM51" t="inlineStr"/>
+      <c r="DN51" t="inlineStr"/>
+      <c r="DO51" t="inlineStr"/>
+      <c r="DP51" t="inlineStr"/>
+      <c r="DQ51" t="inlineStr"/>
+      <c r="DR51" t="inlineStr"/>
+      <c r="DS51" t="inlineStr"/>
+      <c r="DT51" t="inlineStr"/>
+      <c r="DU51" t="inlineStr"/>
+      <c r="DV51" t="inlineStr"/>
+      <c r="DW51" t="inlineStr"/>
+      <c r="DX51" t="inlineStr"/>
+      <c r="DY51" t="inlineStr"/>
+      <c r="DZ51" t="inlineStr"/>
+      <c r="EA51" t="inlineStr"/>
+      <c r="EB51" t="inlineStr"/>
+      <c r="EC51" t="inlineStr"/>
+      <c r="ED51" t="inlineStr"/>
+      <c r="EE51" t="inlineStr"/>
+      <c r="EF51" t="inlineStr"/>
+      <c r="EG51" t="inlineStr"/>
+      <c r="EH51" t="inlineStr"/>
+      <c r="EI51" t="inlineStr"/>
+      <c r="EJ51" t="inlineStr"/>
+      <c r="EK51" t="inlineStr"/>
+      <c r="EL51" t="inlineStr"/>
+      <c r="EM51" t="inlineStr"/>
+      <c r="EN51" t="inlineStr"/>
+      <c r="EO51" t="inlineStr"/>
+      <c r="EP51" t="inlineStr"/>
+      <c r="EQ51" t="inlineStr"/>
+      <c r="ER51" t="inlineStr"/>
+      <c r="ES51" t="inlineStr"/>
+      <c r="ET51" t="inlineStr"/>
+      <c r="EU51" t="inlineStr"/>
+      <c r="EV51" t="inlineStr"/>
+      <c r="EW51" t="inlineStr"/>
+      <c r="EX51" t="inlineStr"/>
+      <c r="EY51" t="inlineStr"/>
+      <c r="EZ51" t="inlineStr"/>
+      <c r="FA51" t="inlineStr"/>
+      <c r="FB51" t="inlineStr"/>
+      <c r="FC51" t="inlineStr"/>
+      <c r="FD51" t="inlineStr"/>
+      <c r="FE51" t="inlineStr"/>
+      <c r="FF51" t="inlineStr"/>
+      <c r="FG51" t="inlineStr"/>
+      <c r="FH51" t="inlineStr"/>
+      <c r="FI51" t="inlineStr"/>
+      <c r="FJ51" t="inlineStr"/>
+      <c r="FK51" t="inlineStr"/>
+      <c r="FL51" t="inlineStr"/>
+      <c r="FM51" t="inlineStr"/>
+      <c r="FN51" t="inlineStr"/>
+      <c r="FO51" t="inlineStr"/>
+      <c r="FP51" t="inlineStr"/>
+      <c r="FQ51" t="inlineStr"/>
+      <c r="FR51" t="inlineStr"/>
+      <c r="FS51" t="inlineStr"/>
+      <c r="FT51" t="inlineStr"/>
+      <c r="FU51" t="inlineStr"/>
+      <c r="FV51" t="inlineStr"/>
+      <c r="FW51" t="inlineStr"/>
+      <c r="FX51" t="inlineStr"/>
+      <c r="FY51" t="inlineStr"/>
       <c r="FZ51" t="n">
         <v>157.5</v>
       </c>
@@ -60104,9 +59568,11 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="52" spans="1:383">
-      <c r="A52" s="1" t="s">
-        <v>433</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>257: manufacture of cutlery, tools and general hardware</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>95.3</v>
@@ -61255,9 +60721,11 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="53" spans="1:383">
-      <c r="A53" s="1" t="s">
-        <v>434</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>259: manufacture of other fabricated metal products</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>133.3</v>
@@ -62406,142 +61874,144 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="54" spans="1:383">
-      <c r="A54" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
-      <c r="D54" t="s"/>
-      <c r="E54" t="s"/>
-      <c r="F54" t="s"/>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s"/>
-      <c r="J54" t="s"/>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
-      <c r="M54" t="s"/>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
-      <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
-      <c r="V54" t="s"/>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
-      <c r="Z54" t="s"/>
-      <c r="AA54" t="s"/>
-      <c r="AB54" t="s"/>
-      <c r="AC54" t="s"/>
-      <c r="AD54" t="s"/>
-      <c r="AE54" t="s"/>
-      <c r="AF54" t="s"/>
-      <c r="AG54" t="s"/>
-      <c r="AH54" t="s"/>
-      <c r="AI54" t="s"/>
-      <c r="AJ54" t="s"/>
-      <c r="AK54" t="s"/>
-      <c r="AL54" t="s"/>
-      <c r="AM54" t="s"/>
-      <c r="AN54" t="s"/>
-      <c r="AO54" t="s"/>
-      <c r="AP54" t="s"/>
-      <c r="AQ54" t="s"/>
-      <c r="AR54" t="s"/>
-      <c r="AS54" t="s"/>
-      <c r="AT54" t="s"/>
-      <c r="AU54" t="s"/>
-      <c r="AV54" t="s"/>
-      <c r="AW54" t="s"/>
-      <c r="AX54" t="s"/>
-      <c r="AY54" t="s"/>
-      <c r="AZ54" t="s"/>
-      <c r="BA54" t="s"/>
-      <c r="BB54" t="s"/>
-      <c r="BC54" t="s"/>
-      <c r="BD54" t="s"/>
-      <c r="BE54" t="s"/>
-      <c r="BF54" t="s"/>
-      <c r="BG54" t="s"/>
-      <c r="BH54" t="s"/>
-      <c r="BI54" t="s"/>
-      <c r="BJ54" t="s"/>
-      <c r="BK54" t="s"/>
-      <c r="BL54" t="s"/>
-      <c r="BM54" t="s"/>
-      <c r="BN54" t="s"/>
-      <c r="BO54" t="s"/>
-      <c r="BP54" t="s"/>
-      <c r="BQ54" t="s"/>
-      <c r="BR54" t="s"/>
-      <c r="BS54" t="s"/>
-      <c r="BT54" t="s"/>
-      <c r="BU54" t="s"/>
-      <c r="BV54" t="s"/>
-      <c r="BW54" t="s"/>
-      <c r="BX54" t="s"/>
-      <c r="BY54" t="s"/>
-      <c r="BZ54" t="s"/>
-      <c r="CA54" t="s"/>
-      <c r="CB54" t="s"/>
-      <c r="CC54" t="s"/>
-      <c r="CD54" t="s"/>
-      <c r="CE54" t="s"/>
-      <c r="CF54" t="s"/>
-      <c r="CG54" t="s"/>
-      <c r="CH54" t="s"/>
-      <c r="CI54" t="s"/>
-      <c r="CJ54" t="s"/>
-      <c r="CK54" t="s"/>
-      <c r="CL54" t="s"/>
-      <c r="CM54" t="s"/>
-      <c r="CN54" t="s"/>
-      <c r="CO54" t="s"/>
-      <c r="CP54" t="s"/>
-      <c r="CQ54" t="s"/>
-      <c r="CR54" t="s"/>
-      <c r="CS54" t="s"/>
-      <c r="CT54" t="s"/>
-      <c r="CU54" t="s"/>
-      <c r="CV54" t="s"/>
-      <c r="CW54" t="s"/>
-      <c r="CX54" t="s"/>
-      <c r="CY54" t="s"/>
-      <c r="CZ54" t="s"/>
-      <c r="DA54" t="s"/>
-      <c r="DB54" t="s"/>
-      <c r="DC54" t="s"/>
-      <c r="DD54" t="s"/>
-      <c r="DE54" t="s"/>
-      <c r="DF54" t="s"/>
-      <c r="DG54" t="s"/>
-      <c r="DH54" t="s"/>
-      <c r="DI54" t="s"/>
-      <c r="DJ54" t="s"/>
-      <c r="DK54" t="s"/>
-      <c r="DL54" t="s"/>
-      <c r="DM54" t="s"/>
-      <c r="DN54" t="s"/>
-      <c r="DO54" t="s"/>
-      <c r="DP54" t="s"/>
-      <c r="DQ54" t="s"/>
-      <c r="DR54" t="s"/>
-      <c r="DS54" t="s"/>
-      <c r="DT54" t="s"/>
-      <c r="DU54" t="s"/>
-      <c r="DV54" t="s"/>
-      <c r="DW54" t="s"/>
-      <c r="DX54" t="s"/>
-      <c r="DY54" t="s"/>
-      <c r="DZ54" t="s"/>
-      <c r="EA54" t="s"/>
-      <c r="EB54" t="s"/>
-      <c r="EC54" t="s"/>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>261: manufacture of electronic components and boards</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="inlineStr"/>
+      <c r="BU54" t="inlineStr"/>
+      <c r="BV54" t="inlineStr"/>
+      <c r="BW54" t="inlineStr"/>
+      <c r="BX54" t="inlineStr"/>
+      <c r="BY54" t="inlineStr"/>
+      <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr"/>
+      <c r="CC54" t="inlineStr"/>
+      <c r="CD54" t="inlineStr"/>
+      <c r="CE54" t="inlineStr"/>
+      <c r="CF54" t="inlineStr"/>
+      <c r="CG54" t="inlineStr"/>
+      <c r="CH54" t="inlineStr"/>
+      <c r="CI54" t="inlineStr"/>
+      <c r="CJ54" t="inlineStr"/>
+      <c r="CK54" t="inlineStr"/>
+      <c r="CL54" t="inlineStr"/>
+      <c r="CM54" t="inlineStr"/>
+      <c r="CN54" t="inlineStr"/>
+      <c r="CO54" t="inlineStr"/>
+      <c r="CP54" t="inlineStr"/>
+      <c r="CQ54" t="inlineStr"/>
+      <c r="CR54" t="inlineStr"/>
+      <c r="CS54" t="inlineStr"/>
+      <c r="CT54" t="inlineStr"/>
+      <c r="CU54" t="inlineStr"/>
+      <c r="CV54" t="inlineStr"/>
+      <c r="CW54" t="inlineStr"/>
+      <c r="CX54" t="inlineStr"/>
+      <c r="CY54" t="inlineStr"/>
+      <c r="CZ54" t="inlineStr"/>
+      <c r="DA54" t="inlineStr"/>
+      <c r="DB54" t="inlineStr"/>
+      <c r="DC54" t="inlineStr"/>
+      <c r="DD54" t="inlineStr"/>
+      <c r="DE54" t="inlineStr"/>
+      <c r="DF54" t="inlineStr"/>
+      <c r="DG54" t="inlineStr"/>
+      <c r="DH54" t="inlineStr"/>
+      <c r="DI54" t="inlineStr"/>
+      <c r="DJ54" t="inlineStr"/>
+      <c r="DK54" t="inlineStr"/>
+      <c r="DL54" t="inlineStr"/>
+      <c r="DM54" t="inlineStr"/>
+      <c r="DN54" t="inlineStr"/>
+      <c r="DO54" t="inlineStr"/>
+      <c r="DP54" t="inlineStr"/>
+      <c r="DQ54" t="inlineStr"/>
+      <c r="DR54" t="inlineStr"/>
+      <c r="DS54" t="inlineStr"/>
+      <c r="DT54" t="inlineStr"/>
+      <c r="DU54" t="inlineStr"/>
+      <c r="DV54" t="inlineStr"/>
+      <c r="DW54" t="inlineStr"/>
+      <c r="DX54" t="inlineStr"/>
+      <c r="DY54" t="inlineStr"/>
+      <c r="DZ54" t="inlineStr"/>
+      <c r="EA54" t="inlineStr"/>
+      <c r="EB54" t="inlineStr"/>
+      <c r="EC54" t="inlineStr"/>
       <c r="ED54" t="n">
         <v>169.8</v>
       </c>
@@ -63293,9 +62763,11 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="55" spans="1:383">
-      <c r="A55" s="1" t="s">
-        <v>436</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>263: manufacture of communication equipment</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>334.3</v>
@@ -64444,9 +63916,11 @@
         <v>69.90000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:383">
-      <c r="A56" s="1" t="s">
-        <v>437</v>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>265: manufacture of instruments and appliances for measuring, testing and navigation, watches and clocks</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>75.59999999999999</v>
@@ -65595,9 +65069,11 @@
         <v>139.7</v>
       </c>
     </row>
-    <row r="57" spans="1:383">
-      <c r="A57" s="1" t="s">
-        <v>438</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>271: manufacture of electric motors, generators, transformers and electricity distribution and control apparatus</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>153.8</v>
@@ -66746,9 +66222,11 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="58" spans="1:383">
-      <c r="A58" s="1" t="s">
-        <v>439</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>272: manufacture of batteries and accumulators</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>110.1</v>
@@ -67897,9 +67375,11 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="59" spans="1:383">
-      <c r="A59" s="1" t="s">
-        <v>440</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>273: manufacture of wiring and wiring devices</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>110</v>
@@ -69048,9 +68528,11 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="60" spans="1:383">
-      <c r="A60" s="1" t="s">
-        <v>441</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>274: manufacture of electric lighting equipment</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>179.1</v>
@@ -70199,9 +69681,11 @@
         <v>112.8</v>
       </c>
     </row>
-    <row r="61" spans="1:383">
-      <c r="A61" s="1" t="s">
-        <v>442</v>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>275: manufacture of domestic appliances</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>128</v>
@@ -71350,9 +70834,11 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="62" spans="1:383">
-      <c r="A62" s="1" t="s">
-        <v>443</v>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>279: manufacture of other electrical equipment</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>572.4</v>
@@ -72501,9 +71987,11 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="63" spans="1:383">
-      <c r="A63" s="1" t="s">
-        <v>444</v>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>281: manufacture of general-purpose machinery</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>82.59999999999999</v>
@@ -73652,9 +73140,11 @@
         <v>116.2</v>
       </c>
     </row>
-    <row r="64" spans="1:383">
-      <c r="A64" s="1" t="s">
-        <v>445</v>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>282: manufacture of other general-purpose machinery</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>72.90000000000001</v>
@@ -74803,9 +74293,11 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="65" spans="1:383">
-      <c r="A65" s="1" t="s">
-        <v>446</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>283: manufacture of agricultural and forestry machinery</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>89.59999999999999</v>
@@ -75954,9 +75446,11 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="66" spans="1:383">
-      <c r="A66" s="1" t="s">
-        <v>447</v>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>284: manufacture of metal forming machinery and machine tools</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>65.7</v>
@@ -77105,9 +76599,11 @@
         <v>121.1</v>
       </c>
     </row>
-    <row r="67" spans="1:383">
-      <c r="A67" s="1" t="s">
-        <v>448</v>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>289: manufacture of other special-purpose machinery</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>122.1</v>
@@ -78256,9 +77752,11 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="68" spans="1:383">
-      <c r="A68" s="1" t="s">
-        <v>449</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>291: manufacture of motor vehicles</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>184.3</v>
@@ -79407,9 +78905,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:383">
-      <c r="A69" s="1" t="s">
-        <v>450</v>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>292: manufacture of bodies (coachwork) for motor vehicles, manufacture of trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>379.7</v>
@@ -80558,9 +80058,11 @@
         <v>149.9</v>
       </c>
     </row>
-    <row r="70" spans="1:383">
-      <c r="A70" s="1" t="s">
-        <v>451</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>293: manufacture of parts and accessories for motor vehicles</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>153.5</v>
@@ -81709,9 +81211,11 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="71" spans="1:383">
-      <c r="A71" s="1" t="s">
-        <v>452</v>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>301: building of ships and boats</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>231</v>
@@ -82860,9 +82364,11 @@
         <v>139.7</v>
       </c>
     </row>
-    <row r="72" spans="1:383">
-      <c r="A72" s="1" t="s">
-        <v>453</v>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>302: manufacture of railway locomotives and rolling stock</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>213.8</v>
@@ -84011,9 +83517,11 @@
         <v>131.2</v>
       </c>
     </row>
-    <row r="73" spans="1:383">
-      <c r="A73" s="1" t="s">
-        <v>454</v>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>303: manufacture of air and spacecraft and related machinery</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>146.6</v>
@@ -85162,9 +84670,11 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="74" spans="1:383">
-      <c r="A74" s="1" t="s">
-        <v>455</v>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>309: manufacture of transport equipment n.e.c.</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>113.5</v>
@@ -86313,142 +85823,144 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:383">
-      <c r="A75" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
-      <c r="D75" t="s"/>
-      <c r="E75" t="s"/>
-      <c r="F75" t="s"/>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s"/>
-      <c r="J75" t="s"/>
-      <c r="K75" t="s"/>
-      <c r="L75" t="s"/>
-      <c r="M75" t="s"/>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
-      <c r="P75" t="s"/>
-      <c r="Q75" t="s"/>
-      <c r="R75" t="s"/>
-      <c r="S75" t="s"/>
-      <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
-      <c r="V75" t="s"/>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
-      <c r="Z75" t="s"/>
-      <c r="AA75" t="s"/>
-      <c r="AB75" t="s"/>
-      <c r="AC75" t="s"/>
-      <c r="AD75" t="s"/>
-      <c r="AE75" t="s"/>
-      <c r="AF75" t="s"/>
-      <c r="AG75" t="s"/>
-      <c r="AH75" t="s"/>
-      <c r="AI75" t="s"/>
-      <c r="AJ75" t="s"/>
-      <c r="AK75" t="s"/>
-      <c r="AL75" t="s"/>
-      <c r="AM75" t="s"/>
-      <c r="AN75" t="s"/>
-      <c r="AO75" t="s"/>
-      <c r="AP75" t="s"/>
-      <c r="AQ75" t="s"/>
-      <c r="AR75" t="s"/>
-      <c r="AS75" t="s"/>
-      <c r="AT75" t="s"/>
-      <c r="AU75" t="s"/>
-      <c r="AV75" t="s"/>
-      <c r="AW75" t="s"/>
-      <c r="AX75" t="s"/>
-      <c r="AY75" t="s"/>
-      <c r="AZ75" t="s"/>
-      <c r="BA75" t="s"/>
-      <c r="BB75" t="s"/>
-      <c r="BC75" t="s"/>
-      <c r="BD75" t="s"/>
-      <c r="BE75" t="s"/>
-      <c r="BF75" t="s"/>
-      <c r="BG75" t="s"/>
-      <c r="BH75" t="s"/>
-      <c r="BI75" t="s"/>
-      <c r="BJ75" t="s"/>
-      <c r="BK75" t="s"/>
-      <c r="BL75" t="s"/>
-      <c r="BM75" t="s"/>
-      <c r="BN75" t="s"/>
-      <c r="BO75" t="s"/>
-      <c r="BP75" t="s"/>
-      <c r="BQ75" t="s"/>
-      <c r="BR75" t="s"/>
-      <c r="BS75" t="s"/>
-      <c r="BT75" t="s"/>
-      <c r="BU75" t="s"/>
-      <c r="BV75" t="s"/>
-      <c r="BW75" t="s"/>
-      <c r="BX75" t="s"/>
-      <c r="BY75" t="s"/>
-      <c r="BZ75" t="s"/>
-      <c r="CA75" t="s"/>
-      <c r="CB75" t="s"/>
-      <c r="CC75" t="s"/>
-      <c r="CD75" t="s"/>
-      <c r="CE75" t="s"/>
-      <c r="CF75" t="s"/>
-      <c r="CG75" t="s"/>
-      <c r="CH75" t="s"/>
-      <c r="CI75" t="s"/>
-      <c r="CJ75" t="s"/>
-      <c r="CK75" t="s"/>
-      <c r="CL75" t="s"/>
-      <c r="CM75" t="s"/>
-      <c r="CN75" t="s"/>
-      <c r="CO75" t="s"/>
-      <c r="CP75" t="s"/>
-      <c r="CQ75" t="s"/>
-      <c r="CR75" t="s"/>
-      <c r="CS75" t="s"/>
-      <c r="CT75" t="s"/>
-      <c r="CU75" t="s"/>
-      <c r="CV75" t="s"/>
-      <c r="CW75" t="s"/>
-      <c r="CX75" t="s"/>
-      <c r="CY75" t="s"/>
-      <c r="CZ75" t="s"/>
-      <c r="DA75" t="s"/>
-      <c r="DB75" t="s"/>
-      <c r="DC75" t="s"/>
-      <c r="DD75" t="s"/>
-      <c r="DE75" t="s"/>
-      <c r="DF75" t="s"/>
-      <c r="DG75" t="s"/>
-      <c r="DH75" t="s"/>
-      <c r="DI75" t="s"/>
-      <c r="DJ75" t="s"/>
-      <c r="DK75" t="s"/>
-      <c r="DL75" t="s"/>
-      <c r="DM75" t="s"/>
-      <c r="DN75" t="s"/>
-      <c r="DO75" t="s"/>
-      <c r="DP75" t="s"/>
-      <c r="DQ75" t="s"/>
-      <c r="DR75" t="s"/>
-      <c r="DS75" t="s"/>
-      <c r="DT75" t="s"/>
-      <c r="DU75" t="s"/>
-      <c r="DV75" t="s"/>
-      <c r="DW75" t="s"/>
-      <c r="DX75" t="s"/>
-      <c r="DY75" t="s"/>
-      <c r="DZ75" t="s"/>
-      <c r="EA75" t="s"/>
-      <c r="EB75" t="s"/>
-      <c r="EC75" t="s"/>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>321: manufacture of jewellery, bijouterie and related articles</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
+      <c r="AS75" t="inlineStr"/>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AU75" t="inlineStr"/>
+      <c r="AV75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr"/>
+      <c r="AX75" t="inlineStr"/>
+      <c r="AY75" t="inlineStr"/>
+      <c r="AZ75" t="inlineStr"/>
+      <c r="BA75" t="inlineStr"/>
+      <c r="BB75" t="inlineStr"/>
+      <c r="BC75" t="inlineStr"/>
+      <c r="BD75" t="inlineStr"/>
+      <c r="BE75" t="inlineStr"/>
+      <c r="BF75" t="inlineStr"/>
+      <c r="BG75" t="inlineStr"/>
+      <c r="BH75" t="inlineStr"/>
+      <c r="BI75" t="inlineStr"/>
+      <c r="BJ75" t="inlineStr"/>
+      <c r="BK75" t="inlineStr"/>
+      <c r="BL75" t="inlineStr"/>
+      <c r="BM75" t="inlineStr"/>
+      <c r="BN75" t="inlineStr"/>
+      <c r="BO75" t="inlineStr"/>
+      <c r="BP75" t="inlineStr"/>
+      <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
+      <c r="BS75" t="inlineStr"/>
+      <c r="BT75" t="inlineStr"/>
+      <c r="BU75" t="inlineStr"/>
+      <c r="BV75" t="inlineStr"/>
+      <c r="BW75" t="inlineStr"/>
+      <c r="BX75" t="inlineStr"/>
+      <c r="BY75" t="inlineStr"/>
+      <c r="BZ75" t="inlineStr"/>
+      <c r="CA75" t="inlineStr"/>
+      <c r="CB75" t="inlineStr"/>
+      <c r="CC75" t="inlineStr"/>
+      <c r="CD75" t="inlineStr"/>
+      <c r="CE75" t="inlineStr"/>
+      <c r="CF75" t="inlineStr"/>
+      <c r="CG75" t="inlineStr"/>
+      <c r="CH75" t="inlineStr"/>
+      <c r="CI75" t="inlineStr"/>
+      <c r="CJ75" t="inlineStr"/>
+      <c r="CK75" t="inlineStr"/>
+      <c r="CL75" t="inlineStr"/>
+      <c r="CM75" t="inlineStr"/>
+      <c r="CN75" t="inlineStr"/>
+      <c r="CO75" t="inlineStr"/>
+      <c r="CP75" t="inlineStr"/>
+      <c r="CQ75" t="inlineStr"/>
+      <c r="CR75" t="inlineStr"/>
+      <c r="CS75" t="inlineStr"/>
+      <c r="CT75" t="inlineStr"/>
+      <c r="CU75" t="inlineStr"/>
+      <c r="CV75" t="inlineStr"/>
+      <c r="CW75" t="inlineStr"/>
+      <c r="CX75" t="inlineStr"/>
+      <c r="CY75" t="inlineStr"/>
+      <c r="CZ75" t="inlineStr"/>
+      <c r="DA75" t="inlineStr"/>
+      <c r="DB75" t="inlineStr"/>
+      <c r="DC75" t="inlineStr"/>
+      <c r="DD75" t="inlineStr"/>
+      <c r="DE75" t="inlineStr"/>
+      <c r="DF75" t="inlineStr"/>
+      <c r="DG75" t="inlineStr"/>
+      <c r="DH75" t="inlineStr"/>
+      <c r="DI75" t="inlineStr"/>
+      <c r="DJ75" t="inlineStr"/>
+      <c r="DK75" t="inlineStr"/>
+      <c r="DL75" t="inlineStr"/>
+      <c r="DM75" t="inlineStr"/>
+      <c r="DN75" t="inlineStr"/>
+      <c r="DO75" t="inlineStr"/>
+      <c r="DP75" t="inlineStr"/>
+      <c r="DQ75" t="inlineStr"/>
+      <c r="DR75" t="inlineStr"/>
+      <c r="DS75" t="inlineStr"/>
+      <c r="DT75" t="inlineStr"/>
+      <c r="DU75" t="inlineStr"/>
+      <c r="DV75" t="inlineStr"/>
+      <c r="DW75" t="inlineStr"/>
+      <c r="DX75" t="inlineStr"/>
+      <c r="DY75" t="inlineStr"/>
+      <c r="DZ75" t="inlineStr"/>
+      <c r="EA75" t="inlineStr"/>
+      <c r="EB75" t="inlineStr"/>
+      <c r="EC75" t="inlineStr"/>
       <c r="ED75" t="n">
         <v>110</v>
       </c>
@@ -87200,9 +86712,11 @@
         <v>215.9</v>
       </c>
     </row>
-    <row r="76" spans="1:383">
-      <c r="A76" s="1" t="s">
-        <v>457</v>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>323: manufacture of sports goods</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>142.2</v>
@@ -88351,9 +87865,11 @@
         <v>111.8</v>
       </c>
     </row>
-    <row r="77" spans="1:383">
-      <c r="A77" s="1" t="s">
-        <v>458</v>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>325: manufacture of medical and dental instruments and supplies</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>81.2</v>
@@ -89502,9 +89018,11 @@
         <v>122.4</v>
       </c>
     </row>
-    <row r="78" spans="1:383">
-      <c r="A78" s="1" t="s">
-        <v>459</v>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>329: manufacturing n.e.c.</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>36.7</v>
@@ -90653,9 +90171,11 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="79" spans="1:383">
-      <c r="A79" s="1" t="s">
-        <v>460</v>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>331: repair of fabricated metal products, machinery and equipment</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>488.9</v>
@@ -91804,190 +91324,192 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="80" spans="1:383">
-      <c r="A80" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
-      <c r="D80" t="s"/>
-      <c r="E80" t="s"/>
-      <c r="F80" t="s"/>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s"/>
-      <c r="J80" t="s"/>
-      <c r="K80" t="s"/>
-      <c r="L80" t="s"/>
-      <c r="M80" t="s"/>
-      <c r="N80" t="s"/>
-      <c r="O80" t="s"/>
-      <c r="P80" t="s"/>
-      <c r="Q80" t="s"/>
-      <c r="R80" t="s"/>
-      <c r="S80" t="s"/>
-      <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
-      <c r="V80" t="s"/>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
-      <c r="Z80" t="s"/>
-      <c r="AA80" t="s"/>
-      <c r="AB80" t="s"/>
-      <c r="AC80" t="s"/>
-      <c r="AD80" t="s"/>
-      <c r="AE80" t="s"/>
-      <c r="AF80" t="s"/>
-      <c r="AG80" t="s"/>
-      <c r="AH80" t="s"/>
-      <c r="AI80" t="s"/>
-      <c r="AJ80" t="s"/>
-      <c r="AK80" t="s"/>
-      <c r="AL80" t="s"/>
-      <c r="AM80" t="s"/>
-      <c r="AN80" t="s"/>
-      <c r="AO80" t="s"/>
-      <c r="AP80" t="s"/>
-      <c r="AQ80" t="s"/>
-      <c r="AR80" t="s"/>
-      <c r="AS80" t="s"/>
-      <c r="AT80" t="s"/>
-      <c r="AU80" t="s"/>
-      <c r="AV80" t="s"/>
-      <c r="AW80" t="s"/>
-      <c r="AX80" t="s"/>
-      <c r="AY80" t="s"/>
-      <c r="AZ80" t="s"/>
-      <c r="BA80" t="s"/>
-      <c r="BB80" t="s"/>
-      <c r="BC80" t="s"/>
-      <c r="BD80" t="s"/>
-      <c r="BE80" t="s"/>
-      <c r="BF80" t="s"/>
-      <c r="BG80" t="s"/>
-      <c r="BH80" t="s"/>
-      <c r="BI80" t="s"/>
-      <c r="BJ80" t="s"/>
-      <c r="BK80" t="s"/>
-      <c r="BL80" t="s"/>
-      <c r="BM80" t="s"/>
-      <c r="BN80" t="s"/>
-      <c r="BO80" t="s"/>
-      <c r="BP80" t="s"/>
-      <c r="BQ80" t="s"/>
-      <c r="BR80" t="s"/>
-      <c r="BS80" t="s"/>
-      <c r="BT80" t="s"/>
-      <c r="BU80" t="s"/>
-      <c r="BV80" t="s"/>
-      <c r="BW80" t="s"/>
-      <c r="BX80" t="s"/>
-      <c r="BY80" t="s"/>
-      <c r="BZ80" t="s"/>
-      <c r="CA80" t="s"/>
-      <c r="CB80" t="s"/>
-      <c r="CC80" t="s"/>
-      <c r="CD80" t="s"/>
-      <c r="CE80" t="s"/>
-      <c r="CF80" t="s"/>
-      <c r="CG80" t="s"/>
-      <c r="CH80" t="s"/>
-      <c r="CI80" t="s"/>
-      <c r="CJ80" t="s"/>
-      <c r="CK80" t="s"/>
-      <c r="CL80" t="s"/>
-      <c r="CM80" t="s"/>
-      <c r="CN80" t="s"/>
-      <c r="CO80" t="s"/>
-      <c r="CP80" t="s"/>
-      <c r="CQ80" t="s"/>
-      <c r="CR80" t="s"/>
-      <c r="CS80" t="s"/>
-      <c r="CT80" t="s"/>
-      <c r="CU80" t="s"/>
-      <c r="CV80" t="s"/>
-      <c r="CW80" t="s"/>
-      <c r="CX80" t="s"/>
-      <c r="CY80" t="s"/>
-      <c r="CZ80" t="s"/>
-      <c r="DA80" t="s"/>
-      <c r="DB80" t="s"/>
-      <c r="DC80" t="s"/>
-      <c r="DD80" t="s"/>
-      <c r="DE80" t="s"/>
-      <c r="DF80" t="s"/>
-      <c r="DG80" t="s"/>
-      <c r="DH80" t="s"/>
-      <c r="DI80" t="s"/>
-      <c r="DJ80" t="s"/>
-      <c r="DK80" t="s"/>
-      <c r="DL80" t="s"/>
-      <c r="DM80" t="s"/>
-      <c r="DN80" t="s"/>
-      <c r="DO80" t="s"/>
-      <c r="DP80" t="s"/>
-      <c r="DQ80" t="s"/>
-      <c r="DR80" t="s"/>
-      <c r="DS80" t="s"/>
-      <c r="DT80" t="s"/>
-      <c r="DU80" t="s"/>
-      <c r="DV80" t="s"/>
-      <c r="DW80" t="s"/>
-      <c r="DX80" t="s"/>
-      <c r="DY80" t="s"/>
-      <c r="DZ80" t="s"/>
-      <c r="EA80" t="s"/>
-      <c r="EB80" t="s"/>
-      <c r="EC80" t="s"/>
-      <c r="ED80" t="s"/>
-      <c r="EE80" t="s"/>
-      <c r="EF80" t="s"/>
-      <c r="EG80" t="s"/>
-      <c r="EH80" t="s"/>
-      <c r="EI80" t="s"/>
-      <c r="EJ80" t="s"/>
-      <c r="EK80" t="s"/>
-      <c r="EL80" t="s"/>
-      <c r="EM80" t="s"/>
-      <c r="EN80" t="s"/>
-      <c r="EO80" t="s"/>
-      <c r="EP80" t="s"/>
-      <c r="EQ80" t="s"/>
-      <c r="ER80" t="s"/>
-      <c r="ES80" t="s"/>
-      <c r="ET80" t="s"/>
-      <c r="EU80" t="s"/>
-      <c r="EV80" t="s"/>
-      <c r="EW80" t="s"/>
-      <c r="EX80" t="s"/>
-      <c r="EY80" t="s"/>
-      <c r="EZ80" t="s"/>
-      <c r="FA80" t="s"/>
-      <c r="FB80" t="s"/>
-      <c r="FC80" t="s"/>
-      <c r="FD80" t="s"/>
-      <c r="FE80" t="s"/>
-      <c r="FF80" t="s"/>
-      <c r="FG80" t="s"/>
-      <c r="FH80" t="s"/>
-      <c r="FI80" t="s"/>
-      <c r="FJ80" t="s"/>
-      <c r="FK80" t="s"/>
-      <c r="FL80" t="s"/>
-      <c r="FM80" t="s"/>
-      <c r="FN80" t="s"/>
-      <c r="FO80" t="s"/>
-      <c r="FP80" t="s"/>
-      <c r="FQ80" t="s"/>
-      <c r="FR80" t="s"/>
-      <c r="FS80" t="s"/>
-      <c r="FT80" t="s"/>
-      <c r="FU80" t="s"/>
-      <c r="FV80" t="s"/>
-      <c r="FW80" t="s"/>
-      <c r="FX80" t="s"/>
-      <c r="FY80" t="s"/>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>332: installation of industrial machinery and equipment</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AU80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr"/>
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="inlineStr"/>
+      <c r="AZ80" t="inlineStr"/>
+      <c r="BA80" t="inlineStr"/>
+      <c r="BB80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
+      <c r="BD80" t="inlineStr"/>
+      <c r="BE80" t="inlineStr"/>
+      <c r="BF80" t="inlineStr"/>
+      <c r="BG80" t="inlineStr"/>
+      <c r="BH80" t="inlineStr"/>
+      <c r="BI80" t="inlineStr"/>
+      <c r="BJ80" t="inlineStr"/>
+      <c r="BK80" t="inlineStr"/>
+      <c r="BL80" t="inlineStr"/>
+      <c r="BM80" t="inlineStr"/>
+      <c r="BN80" t="inlineStr"/>
+      <c r="BO80" t="inlineStr"/>
+      <c r="BP80" t="inlineStr"/>
+      <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
+      <c r="BS80" t="inlineStr"/>
+      <c r="BT80" t="inlineStr"/>
+      <c r="BU80" t="inlineStr"/>
+      <c r="BV80" t="inlineStr"/>
+      <c r="BW80" t="inlineStr"/>
+      <c r="BX80" t="inlineStr"/>
+      <c r="BY80" t="inlineStr"/>
+      <c r="BZ80" t="inlineStr"/>
+      <c r="CA80" t="inlineStr"/>
+      <c r="CB80" t="inlineStr"/>
+      <c r="CC80" t="inlineStr"/>
+      <c r="CD80" t="inlineStr"/>
+      <c r="CE80" t="inlineStr"/>
+      <c r="CF80" t="inlineStr"/>
+      <c r="CG80" t="inlineStr"/>
+      <c r="CH80" t="inlineStr"/>
+      <c r="CI80" t="inlineStr"/>
+      <c r="CJ80" t="inlineStr"/>
+      <c r="CK80" t="inlineStr"/>
+      <c r="CL80" t="inlineStr"/>
+      <c r="CM80" t="inlineStr"/>
+      <c r="CN80" t="inlineStr"/>
+      <c r="CO80" t="inlineStr"/>
+      <c r="CP80" t="inlineStr"/>
+      <c r="CQ80" t="inlineStr"/>
+      <c r="CR80" t="inlineStr"/>
+      <c r="CS80" t="inlineStr"/>
+      <c r="CT80" t="inlineStr"/>
+      <c r="CU80" t="inlineStr"/>
+      <c r="CV80" t="inlineStr"/>
+      <c r="CW80" t="inlineStr"/>
+      <c r="CX80" t="inlineStr"/>
+      <c r="CY80" t="inlineStr"/>
+      <c r="CZ80" t="inlineStr"/>
+      <c r="DA80" t="inlineStr"/>
+      <c r="DB80" t="inlineStr"/>
+      <c r="DC80" t="inlineStr"/>
+      <c r="DD80" t="inlineStr"/>
+      <c r="DE80" t="inlineStr"/>
+      <c r="DF80" t="inlineStr"/>
+      <c r="DG80" t="inlineStr"/>
+      <c r="DH80" t="inlineStr"/>
+      <c r="DI80" t="inlineStr"/>
+      <c r="DJ80" t="inlineStr"/>
+      <c r="DK80" t="inlineStr"/>
+      <c r="DL80" t="inlineStr"/>
+      <c r="DM80" t="inlineStr"/>
+      <c r="DN80" t="inlineStr"/>
+      <c r="DO80" t="inlineStr"/>
+      <c r="DP80" t="inlineStr"/>
+      <c r="DQ80" t="inlineStr"/>
+      <c r="DR80" t="inlineStr"/>
+      <c r="DS80" t="inlineStr"/>
+      <c r="DT80" t="inlineStr"/>
+      <c r="DU80" t="inlineStr"/>
+      <c r="DV80" t="inlineStr"/>
+      <c r="DW80" t="inlineStr"/>
+      <c r="DX80" t="inlineStr"/>
+      <c r="DY80" t="inlineStr"/>
+      <c r="DZ80" t="inlineStr"/>
+      <c r="EA80" t="inlineStr"/>
+      <c r="EB80" t="inlineStr"/>
+      <c r="EC80" t="inlineStr"/>
+      <c r="ED80" t="inlineStr"/>
+      <c r="EE80" t="inlineStr"/>
+      <c r="EF80" t="inlineStr"/>
+      <c r="EG80" t="inlineStr"/>
+      <c r="EH80" t="inlineStr"/>
+      <c r="EI80" t="inlineStr"/>
+      <c r="EJ80" t="inlineStr"/>
+      <c r="EK80" t="inlineStr"/>
+      <c r="EL80" t="inlineStr"/>
+      <c r="EM80" t="inlineStr"/>
+      <c r="EN80" t="inlineStr"/>
+      <c r="EO80" t="inlineStr"/>
+      <c r="EP80" t="inlineStr"/>
+      <c r="EQ80" t="inlineStr"/>
+      <c r="ER80" t="inlineStr"/>
+      <c r="ES80" t="inlineStr"/>
+      <c r="ET80" t="inlineStr"/>
+      <c r="EU80" t="inlineStr"/>
+      <c r="EV80" t="inlineStr"/>
+      <c r="EW80" t="inlineStr"/>
+      <c r="EX80" t="inlineStr"/>
+      <c r="EY80" t="inlineStr"/>
+      <c r="EZ80" t="inlineStr"/>
+      <c r="FA80" t="inlineStr"/>
+      <c r="FB80" t="inlineStr"/>
+      <c r="FC80" t="inlineStr"/>
+      <c r="FD80" t="inlineStr"/>
+      <c r="FE80" t="inlineStr"/>
+      <c r="FF80" t="inlineStr"/>
+      <c r="FG80" t="inlineStr"/>
+      <c r="FH80" t="inlineStr"/>
+      <c r="FI80" t="inlineStr"/>
+      <c r="FJ80" t="inlineStr"/>
+      <c r="FK80" t="inlineStr"/>
+      <c r="FL80" t="inlineStr"/>
+      <c r="FM80" t="inlineStr"/>
+      <c r="FN80" t="inlineStr"/>
+      <c r="FO80" t="inlineStr"/>
+      <c r="FP80" t="inlineStr"/>
+      <c r="FQ80" t="inlineStr"/>
+      <c r="FR80" t="inlineStr"/>
+      <c r="FS80" t="inlineStr"/>
+      <c r="FT80" t="inlineStr"/>
+      <c r="FU80" t="inlineStr"/>
+      <c r="FV80" t="inlineStr"/>
+      <c r="FW80" t="inlineStr"/>
+      <c r="FX80" t="inlineStr"/>
+      <c r="FY80" t="inlineStr"/>
       <c r="FZ80" t="n">
         <v>95.7</v>
       </c>
@@ -92595,9 +92117,11 @@
         <v>150.7</v>
       </c>
     </row>
-    <row r="81" spans="1:383">
-      <c r="A81" s="1" t="s">
-        <v>462</v>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>3511: production of electricity</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>90.5</v>
@@ -93746,9 +93270,11 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="82" spans="1:383">
-      <c r="A82" s="1" t="s">
-        <v>463</v>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>3522: distribution of gaseous fuels through mains</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>114.4</v>
